--- a/BalanceSheet/ROKU_bal.xlsx
+++ b/BalanceSheet/ROKU_bal.xlsx
@@ -310,19 +310,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>8714000.0</v>
+        <v>54000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-17608000.0</v>
+        <v>63000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-1023000.0</v>
+        <v>45000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>5736000.0</v>
+        <v>44000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>23817000.0</v>
+        <v>50000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>73531000.0</v>
@@ -890,19 +890,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-64865000.0</v>
+        <v>112000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>44092000.0</v>
+        <v>122000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>17066000.0</v>
+        <v>131000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>10117000.0</v>
+        <v>103000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>-60039000.0</v>
+        <v>115000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>241519000.0</v>
